--- a/SchedulingData/dynamic16/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>225.46</v>
+        <v>207.78</v>
       </c>
       <c r="D2" t="n">
-        <v>299.62</v>
+        <v>280.6</v>
       </c>
       <c r="E2" t="n">
-        <v>11.688</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233.28</v>
+        <v>222.82</v>
       </c>
       <c r="D3" t="n">
-        <v>297.28</v>
+        <v>278</v>
       </c>
       <c r="E3" t="n">
-        <v>9.092000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>297.28</v>
+        <v>280.6</v>
       </c>
       <c r="D4" t="n">
-        <v>330.08</v>
+        <v>374.86</v>
       </c>
       <c r="E4" t="n">
-        <v>6.452</v>
+        <v>12.104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>240.28</v>
+        <v>260.34</v>
       </c>
       <c r="D5" t="n">
-        <v>322.18</v>
+        <v>308.48</v>
       </c>
       <c r="E5" t="n">
-        <v>11.412</v>
+        <v>12.832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>299.62</v>
+        <v>278</v>
       </c>
       <c r="D6" t="n">
-        <v>358.94</v>
+        <v>334.5</v>
       </c>
       <c r="E6" t="n">
-        <v>7.376</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>358.94</v>
+        <v>209.72</v>
       </c>
       <c r="D7" t="n">
-        <v>406.24</v>
+        <v>278.82</v>
       </c>
       <c r="E7" t="n">
-        <v>3.776</v>
+        <v>14.608</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>242</v>
+        <v>334.5</v>
       </c>
       <c r="D8" t="n">
-        <v>311.26</v>
+        <v>398.24</v>
       </c>
       <c r="E8" t="n">
-        <v>10.064</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>215.64</v>
+        <v>308.48</v>
       </c>
       <c r="D9" t="n">
-        <v>263.68</v>
+        <v>356.08</v>
       </c>
       <c r="E9" t="n">
-        <v>13.292</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>406.24</v>
+        <v>356.08</v>
       </c>
       <c r="D10" t="n">
-        <v>462.74</v>
+        <v>445.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1.256</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>462.74</v>
+        <v>278.82</v>
       </c>
       <c r="D11" t="n">
-        <v>532.13</v>
+        <v>353.96</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>10.184</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>322.18</v>
+        <v>203.54</v>
       </c>
       <c r="D12" t="n">
-        <v>416.16</v>
+        <v>280.74</v>
       </c>
       <c r="E12" t="n">
-        <v>7.604</v>
+        <v>15.876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>254.84</v>
+        <v>239.68</v>
       </c>
       <c r="D13" t="n">
-        <v>331</v>
+        <v>335.2</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>311.26</v>
+        <v>353.96</v>
       </c>
       <c r="D14" t="n">
-        <v>382.36</v>
+        <v>396.72</v>
       </c>
       <c r="E14" t="n">
-        <v>5.584</v>
+        <v>7.048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>263.68</v>
+        <v>280.74</v>
       </c>
       <c r="D15" t="n">
-        <v>322.38</v>
+        <v>348.66</v>
       </c>
       <c r="E15" t="n">
-        <v>10.052</v>
+        <v>12.664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331</v>
+        <v>398.24</v>
       </c>
       <c r="D16" t="n">
-        <v>398.3</v>
+        <v>450.54</v>
       </c>
       <c r="E16" t="n">
-        <v>8.300000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,55 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>382.36</v>
+        <v>450.54</v>
       </c>
       <c r="D17" t="n">
-        <v>432.66</v>
+        <v>540.05</v>
       </c>
       <c r="E17" t="n">
-        <v>1.684</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>432.66</v>
+        <v>374.86</v>
       </c>
       <c r="D18" t="n">
-        <v>520.79</v>
+        <v>426.32</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>9.068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>330.08</v>
+        <v>540.05</v>
       </c>
       <c r="D19" t="n">
-        <v>388.38</v>
+        <v>606.09</v>
       </c>
       <c r="E19" t="n">
-        <v>3.732</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="20">
@@ -808,36 +808,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>532.13</v>
+        <v>335.2</v>
       </c>
       <c r="D20" t="n">
-        <v>599.03</v>
+        <v>398.2</v>
       </c>
       <c r="E20" t="n">
-        <v>26.46</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>599.03</v>
+        <v>426.32</v>
       </c>
       <c r="D21" t="n">
-        <v>671.33</v>
+        <v>482.3</v>
       </c>
       <c r="E21" t="n">
-        <v>22.82</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="22">
@@ -846,147 +846,147 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>388.38</v>
+        <v>482.3</v>
       </c>
       <c r="D22" t="n">
-        <v>439.98</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.192</v>
+        <v>3.492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>439.98</v>
+        <v>606.09</v>
       </c>
       <c r="D23" t="n">
-        <v>521.3</v>
+        <v>650.99</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>24.176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>520.79</v>
+        <v>396.72</v>
       </c>
       <c r="D24" t="n">
-        <v>586.83</v>
+        <v>452.92</v>
       </c>
       <c r="E24" t="n">
-        <v>27.036</v>
+        <v>2.568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>416.16</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>467.56</v>
+        <v>590.04</v>
       </c>
       <c r="E25" t="n">
-        <v>4.084</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>586.83</v>
+        <v>590.04</v>
       </c>
       <c r="D26" t="n">
-        <v>642.8099999999999</v>
+        <v>671.77</v>
       </c>
       <c r="E26" t="n">
-        <v>24.528</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>398.3</v>
+        <v>445.3</v>
       </c>
       <c r="D27" t="n">
-        <v>470.56</v>
+        <v>494.68</v>
       </c>
       <c r="E27" t="n">
-        <v>5.164</v>
+        <v>2.072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>467.56</v>
+        <v>398.2</v>
       </c>
       <c r="D28" t="n">
-        <v>548.22</v>
+        <v>483.1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.628</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>548.22</v>
+        <v>494.68</v>
       </c>
       <c r="D29" t="n">
-        <v>638.66</v>
+        <v>572.34</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -994,135 +994,135 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>521.3</v>
+        <v>572.34</v>
       </c>
       <c r="D30" t="n">
-        <v>591.4</v>
+        <v>637.84</v>
       </c>
       <c r="E30" t="n">
-        <v>26.64</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>322.38</v>
+        <v>348.66</v>
       </c>
       <c r="D31" t="n">
-        <v>398.28</v>
+        <v>421.14</v>
       </c>
       <c r="E31" t="n">
-        <v>5.572</v>
+        <v>8.016</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>638.66</v>
+        <v>483.1</v>
       </c>
       <c r="D32" t="n">
-        <v>688.02</v>
+        <v>584.3200000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>27.244</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>591.4</v>
+        <v>584.3200000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>653.28</v>
+        <v>660.96</v>
       </c>
       <c r="E33" t="n">
-        <v>23.572</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>398.28</v>
+        <v>671.77</v>
       </c>
       <c r="D34" t="n">
-        <v>444.88</v>
+        <v>721.13</v>
       </c>
       <c r="E34" t="n">
-        <v>1.552</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>444.88</v>
+        <v>421.14</v>
       </c>
       <c r="D35" t="n">
-        <v>528.38</v>
+        <v>488.14</v>
       </c>
       <c r="E35" t="n">
-        <v>30</v>
+        <v>4.416</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>688.02</v>
+        <v>452.92</v>
       </c>
       <c r="D36" t="n">
-        <v>738.02</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>23.864</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1131,131 +1131,131 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>470.56</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>526.2</v>
+        <v>592.58</v>
       </c>
       <c r="E37" t="n">
-        <v>0.74</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>526.2</v>
+        <v>488.14</v>
       </c>
       <c r="D38" t="n">
-        <v>631.12</v>
+        <v>564.54</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>653.28</v>
+        <v>564.54</v>
       </c>
       <c r="D39" t="n">
-        <v>719.4</v>
+        <v>644.49</v>
       </c>
       <c r="E39" t="n">
-        <v>19.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>719.4</v>
+        <v>592.58</v>
       </c>
       <c r="D40" t="n">
-        <v>761.8</v>
+        <v>663.88</v>
       </c>
       <c r="E40" t="n">
-        <v>16.98</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>642.8099999999999</v>
+        <v>637.84</v>
       </c>
       <c r="D41" t="n">
-        <v>704.67</v>
+        <v>679.24</v>
       </c>
       <c r="E41" t="n">
-        <v>20.472</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>631.12</v>
+        <v>721.13</v>
       </c>
       <c r="D42" t="n">
-        <v>704.54</v>
+        <v>759.63</v>
       </c>
       <c r="E42" t="n">
-        <v>26.788</v>
+        <v>24.524</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>528.38</v>
+        <v>650.99</v>
       </c>
       <c r="D43" t="n">
-        <v>615.6799999999999</v>
+        <v>697.95</v>
       </c>
       <c r="E43" t="n">
-        <v>26.4</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="44">
@@ -1264,55 +1264,131 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>704.54</v>
+        <v>663.88</v>
       </c>
       <c r="D44" t="n">
-        <v>756.98</v>
+        <v>718.86</v>
       </c>
       <c r="E44" t="n">
-        <v>23.664</v>
+        <v>19.432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>704.67</v>
+        <v>660.96</v>
       </c>
       <c r="D45" t="n">
-        <v>778.67</v>
+        <v>745.5599999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>17.172</v>
+        <v>23.596</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>644.49</v>
+      </c>
+      <c r="D46" t="n">
+        <v>697.49</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond17</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>679.24</v>
+      </c>
+      <c r="D47" t="n">
+        <v>751.4400000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond32</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>697.49</v>
+      </c>
+      <c r="D48" t="n">
+        <v>760.6900000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>pond55</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>697.95</v>
+      </c>
+      <c r="D49" t="n">
+        <v>776.3099999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>15.864</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>1</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond33</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>671.33</v>
-      </c>
-      <c r="D46" t="n">
-        <v>745.63</v>
-      </c>
-      <c r="E46" t="n">
-        <v>19.96</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>pond29</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>745.5599999999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>794.38</v>
+      </c>
+      <c r="E50" t="n">
+        <v>20.824</v>
       </c>
     </row>
   </sheetData>
